--- a/downloads/list1_no_colon_adr_matched.xlsx
+++ b/downloads/list1_no_colon_adr_matched.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="449">
   <si>
     <t>Ticker</t>
   </si>
@@ -754,9 +754,6 @@
     <t>EWBC</t>
   </si>
   <si>
-    <t>RS</t>
-  </si>
-  <si>
     <t>OMC</t>
   </si>
   <si>
@@ -785,9 +782,6 @@
   </si>
   <si>
     <t>SNX</t>
-  </si>
-  <si>
-    <t>YMM</t>
   </si>
   <si>
     <t>UNM</t>
@@ -1724,7 +1718,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B451"/>
+  <dimension ref="A1:B449"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1767,7 +1761,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1879,7 +1873,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -2439,7 +2433,7 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -3279,7 +3273,7 @@
         <v>194</v>
       </c>
       <c r="B194">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -3751,7 +3745,7 @@
         <v>253</v>
       </c>
       <c r="B253">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -3759,7 +3753,7 @@
         <v>254</v>
       </c>
       <c r="B254">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -3767,7 +3761,7 @@
         <v>255</v>
       </c>
       <c r="B255">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -3775,7 +3769,7 @@
         <v>256</v>
       </c>
       <c r="B256">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -3807,7 +3801,7 @@
         <v>260</v>
       </c>
       <c r="B260">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -3823,7 +3817,7 @@
         <v>262</v>
       </c>
       <c r="B262">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -3887,7 +3881,7 @@
         <v>270</v>
       </c>
       <c r="B270">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -3895,7 +3889,7 @@
         <v>271</v>
       </c>
       <c r="B271">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -3903,7 +3897,7 @@
         <v>272</v>
       </c>
       <c r="B272">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -3911,7 +3905,7 @@
         <v>273</v>
       </c>
       <c r="B273">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -3943,7 +3937,7 @@
         <v>277</v>
       </c>
       <c r="B277">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -3959,7 +3953,7 @@
         <v>279</v>
       </c>
       <c r="B279">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -4087,7 +4081,7 @@
         <v>295</v>
       </c>
       <c r="B295">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -4103,7 +4097,7 @@
         <v>297</v>
       </c>
       <c r="B297">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -4111,7 +4105,7 @@
         <v>298</v>
       </c>
       <c r="B298">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -4135,7 +4129,7 @@
         <v>301</v>
       </c>
       <c r="B301">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -4151,7 +4145,7 @@
         <v>303</v>
       </c>
       <c r="B303">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -4159,7 +4153,7 @@
         <v>304</v>
       </c>
       <c r="B304">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -4255,7 +4249,7 @@
         <v>316</v>
       </c>
       <c r="B316">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -4271,7 +4265,7 @@
         <v>318</v>
       </c>
       <c r="B318">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -4375,7 +4369,7 @@
         <v>331</v>
       </c>
       <c r="B331">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -4383,7 +4377,7 @@
         <v>332</v>
       </c>
       <c r="B332">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -4391,7 +4385,7 @@
         <v>333</v>
       </c>
       <c r="B333">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -4399,7 +4393,7 @@
         <v>334</v>
       </c>
       <c r="B334">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -4471,7 +4465,7 @@
         <v>343</v>
       </c>
       <c r="B343">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -4487,7 +4481,7 @@
         <v>345</v>
       </c>
       <c r="B345">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -4527,7 +4521,7 @@
         <v>350</v>
       </c>
       <c r="B350">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -4543,7 +4537,7 @@
         <v>352</v>
       </c>
       <c r="B352">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -4583,7 +4577,7 @@
         <v>357</v>
       </c>
       <c r="B357">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -4599,7 +4593,7 @@
         <v>359</v>
       </c>
       <c r="B359">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -4631,7 +4625,7 @@
         <v>363</v>
       </c>
       <c r="B363">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -4647,7 +4641,7 @@
         <v>365</v>
       </c>
       <c r="B365">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -4655,7 +4649,7 @@
         <v>366</v>
       </c>
       <c r="B366">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -4687,7 +4681,7 @@
         <v>370</v>
       </c>
       <c r="B370">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -4711,7 +4705,7 @@
         <v>373</v>
       </c>
       <c r="B373">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -4727,7 +4721,7 @@
         <v>375</v>
       </c>
       <c r="B375">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -4767,7 +4761,7 @@
         <v>380</v>
       </c>
       <c r="B380">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -4783,7 +4777,7 @@
         <v>382</v>
       </c>
       <c r="B382">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -4807,7 +4801,7 @@
         <v>385</v>
       </c>
       <c r="B385">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -4823,7 +4817,7 @@
         <v>387</v>
       </c>
       <c r="B387">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -4887,7 +4881,7 @@
         <v>395</v>
       </c>
       <c r="B395">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -4895,7 +4889,7 @@
         <v>396</v>
       </c>
       <c r="B396">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -4903,7 +4897,7 @@
         <v>397</v>
       </c>
       <c r="B397">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -4911,7 +4905,7 @@
         <v>398</v>
       </c>
       <c r="B398">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -4935,7 +4929,7 @@
         <v>401</v>
       </c>
       <c r="B401">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:2">
@@ -4951,7 +4945,7 @@
         <v>403</v>
       </c>
       <c r="B403">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="404" spans="1:2">
@@ -5286,9 +5280,6 @@
       <c r="A445" t="s">
         <v>445</v>
       </c>
-      <c r="B445">
-        <v>1</v>
-      </c>
     </row>
     <row r="446" spans="1:2">
       <c r="A446" t="s">
@@ -5300,12 +5291,12 @@
     </row>
     <row r="447" spans="1:2">
       <c r="A447" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="448" spans="1:2">
       <c r="A448" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B448">
         <v>1</v>
@@ -5313,22 +5304,9 @@
     </row>
     <row r="449" spans="1:2">
       <c r="A449" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="450" spans="1:2">
-      <c r="A450" t="s">
-        <v>449</v>
-      </c>
-      <c r="B450">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="451" spans="1:2">
-      <c r="A451" t="s">
-        <v>450</v>
-      </c>
-      <c r="B451">
+        <v>448</v>
+      </c>
+      <c r="B449">
         <v>1</v>
       </c>
     </row>
